--- a/全栈进阶/服务器.xlsx
+++ b/全栈进阶/服务器.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Linux" sheetId="1" r:id="rId1"/>
     <sheet name="Nginx" sheetId="2" r:id="rId2"/>
     <sheet name="Docker" sheetId="3" r:id="rId3"/>
     <sheet name="Jenkins" sheetId="4" r:id="rId4"/>
+    <sheet name="上线" sheetId="5" r:id="rId5"/>
+    <sheet name="服务器部署" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,6 +21,167 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+  <si>
+    <t>购买自己的域名</t>
+  </si>
+  <si>
+    <t>域名备案</t>
+  </si>
+  <si>
+    <t>购买服务器配置</t>
+  </si>
+  <si>
+    <t>服务器的应用环境安装</t>
+  </si>
+  <si>
+    <t>配置服务器</t>
+  </si>
+  <si>
+    <t>项目远程部署</t>
+  </si>
+  <si>
+    <t>项目发布与更新</t>
+  </si>
+  <si>
+    <t>Linux安装虚拟机</t>
+  </si>
+  <si>
+    <t>桥接</t>
+  </si>
+  <si>
+    <t>NAT</t>
+  </si>
+  <si>
+    <t>Host-Only等网络链接</t>
+  </si>
+  <si>
+    <t>快照</t>
+  </si>
+  <si>
+    <t>克隆</t>
+  </si>
+  <si>
+    <t>挂载点和分区</t>
+  </si>
+  <si>
+    <t>linux常用命令</t>
+  </si>
+  <si>
+    <t>VI编辑器</t>
+  </si>
+  <si>
+    <t>用户与权限管理</t>
+  </si>
+  <si>
+    <t>服务管理</t>
+  </si>
+  <si>
+    <t>软件管理</t>
+  </si>
+  <si>
+    <t>网络管理</t>
+  </si>
+  <si>
+    <t>系统命令</t>
+  </si>
+  <si>
+    <t>linxu和window的不同</t>
+  </si>
+  <si>
+    <t>nginx的安装和使用</t>
+  </si>
+  <si>
+    <t>模块和基本配置</t>
+  </si>
+  <si>
+    <t>正向和反向代理等应用场景</t>
+  </si>
+  <si>
+    <t>CDN</t>
+  </si>
+  <si>
+    <t>浏览器缓存</t>
+  </si>
+  <si>
+    <t>跨域</t>
+  </si>
+  <si>
+    <t>防盗链</t>
+  </si>
+  <si>
+    <t>rewrite</t>
+  </si>
+  <si>
+    <t>负载均衡集群</t>
+  </si>
+  <si>
+    <t>虚拟机</t>
+  </si>
+  <si>
+    <t>Liunx容器</t>
+  </si>
+  <si>
+    <t>DOcker核心概念</t>
+  </si>
+  <si>
+    <t>Docker架构</t>
+  </si>
+  <si>
+    <t>镜像</t>
+  </si>
+  <si>
+    <t>容器</t>
+  </si>
+  <si>
+    <t>Dockerfile</t>
+  </si>
+  <si>
+    <t>数据盘</t>
+  </si>
+  <si>
+    <t>网络配置</t>
+  </si>
+  <si>
+    <t>docker-compose</t>
+  </si>
+  <si>
+    <t>jenkins job</t>
+  </si>
+  <si>
+    <t>shell集成</t>
+  </si>
+  <si>
+    <t>集成nginx 和 git</t>
+  </si>
+  <si>
+    <t>持续集成和部署</t>
+  </si>
+  <si>
+    <t>travis gitlab ci</t>
+  </si>
+  <si>
+    <t>前端埋点上报</t>
+  </si>
+  <si>
+    <t>前端错误上报</t>
+  </si>
+  <si>
+    <t>前端性能上报</t>
+  </si>
+  <si>
+    <t>前端行为监控上报</t>
+  </si>
+  <si>
+    <t>前端恢复上线与 A/B测试</t>
+  </si>
+  <si>
+    <t>网路缓存技术分析</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -341,12 +504,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B3:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -354,12 +590,65 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B3:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -367,12 +656,65 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B3:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -380,12 +722,138 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B3:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/全栈进阶/服务器.xlsx
+++ b/全栈进阶/服务器.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Linux" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,8 @@
     <sheet name="Docker" sheetId="3" r:id="rId3"/>
     <sheet name="Jenkins" sheetId="4" r:id="rId4"/>
     <sheet name="上线" sheetId="5" r:id="rId5"/>
-    <sheet name="服务器部署" sheetId="6" r:id="rId6"/>
+    <sheet name="集群和负载均衡" sheetId="7" r:id="rId6"/>
+    <sheet name="服务器部署" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>购买自己的域名</t>
   </si>
@@ -89,104 +90,132 @@
     <t>系统命令</t>
   </si>
   <si>
+    <t>nginx的安装和使用</t>
+  </si>
+  <si>
+    <t>模块和基本配置</t>
+  </si>
+  <si>
+    <t>正向和反向代理等应用场景</t>
+  </si>
+  <si>
+    <t>CDN</t>
+  </si>
+  <si>
+    <t>浏览器缓存</t>
+  </si>
+  <si>
+    <t>跨域</t>
+  </si>
+  <si>
+    <t>防盗链</t>
+  </si>
+  <si>
+    <t>rewrite</t>
+  </si>
+  <si>
+    <t>负载均衡集群</t>
+  </si>
+  <si>
+    <t>虚拟机</t>
+  </si>
+  <si>
+    <t>Liunx容器</t>
+  </si>
+  <si>
+    <t>DOcker核心概念</t>
+  </si>
+  <si>
+    <t>Docker架构</t>
+  </si>
+  <si>
+    <t>镜像</t>
+  </si>
+  <si>
+    <t>容器</t>
+  </si>
+  <si>
+    <t>Dockerfile</t>
+  </si>
+  <si>
+    <t>数据盘</t>
+  </si>
+  <si>
+    <t>网络配置</t>
+  </si>
+  <si>
+    <t>docker-compose</t>
+  </si>
+  <si>
+    <t>jenkins job</t>
+  </si>
+  <si>
+    <t>shell集成</t>
+  </si>
+  <si>
+    <t>集成nginx 和 git</t>
+  </si>
+  <si>
+    <t>持续集成和部署</t>
+  </si>
+  <si>
+    <t>travis gitlab ci</t>
+  </si>
+  <si>
+    <t>前端埋点上报</t>
+  </si>
+  <si>
+    <t>前端错误上报</t>
+  </si>
+  <si>
+    <t>前端性能上报</t>
+  </si>
+  <si>
+    <t>前端行为监控上报</t>
+  </si>
+  <si>
+    <t>前端恢复上线与 A/B测试</t>
+  </si>
+  <si>
+    <t>网路缓存技术分析</t>
+  </si>
+  <si>
+    <t>cluster工作原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负载均衡算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pm2使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端埋点参考</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.jianshu.com/p/a1c7a8c3f07a</t>
+  </si>
+  <si>
     <t>linxu和window的不同</t>
-  </si>
-  <si>
-    <t>nginx的安装和使用</t>
-  </si>
-  <si>
-    <t>模块和基本配置</t>
-  </si>
-  <si>
-    <t>正向和反向代理等应用场景</t>
-  </si>
-  <si>
-    <t>CDN</t>
-  </si>
-  <si>
-    <t>浏览器缓存</t>
-  </si>
-  <si>
-    <t>跨域</t>
-  </si>
-  <si>
-    <t>防盗链</t>
-  </si>
-  <si>
-    <t>rewrite</t>
-  </si>
-  <si>
-    <t>负载均衡集群</t>
-  </si>
-  <si>
-    <t>虚拟机</t>
-  </si>
-  <si>
-    <t>Liunx容器</t>
-  </si>
-  <si>
-    <t>DOcker核心概念</t>
-  </si>
-  <si>
-    <t>Docker架构</t>
-  </si>
-  <si>
-    <t>镜像</t>
-  </si>
-  <si>
-    <t>容器</t>
-  </si>
-  <si>
-    <t>Dockerfile</t>
-  </si>
-  <si>
-    <t>数据盘</t>
-  </si>
-  <si>
-    <t>网络配置</t>
-  </si>
-  <si>
-    <t>docker-compose</t>
-  </si>
-  <si>
-    <t>jenkins job</t>
-  </si>
-  <si>
-    <t>shell集成</t>
-  </si>
-  <si>
-    <t>集成nginx 和 git</t>
-  </si>
-  <si>
-    <t>持续集成和部署</t>
-  </si>
-  <si>
-    <t>travis gitlab ci</t>
-  </si>
-  <si>
-    <t>前端埋点上报</t>
-  </si>
-  <si>
-    <t>前端错误上报</t>
-  </si>
-  <si>
-    <t>前端性能上报</t>
-  </si>
-  <si>
-    <t>前端行为监控上报</t>
-  </si>
-  <si>
-    <t>前端恢复上线与 A/B测试</t>
-  </si>
-  <si>
-    <t>网路缓存技术分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shell实战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监控服务和主机网络状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,6 +228,14 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -219,14 +256,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -504,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:B17"/>
+  <dimension ref="B3:B20"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -519,67 +559,82 @@
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -590,62 +645,123 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B12"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -654,77 +770,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:B12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:B7"/>
     </sheetView>
   </sheetViews>
@@ -732,27 +782,27 @@
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -815,46 +865,93 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:B8"/>
+  <dimension ref="B3:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="38.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B11" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>